--- a/P-R_meanDetectionScore_9SP_wMax_d31_ar2_illum1_chart.xlsx
+++ b/P-R_meanDetectionScore_9SP_wMax_d31_ar2_illum1_chart.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="P-R_meanDetectionScore_9SP_wMax" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -685,11 +685,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87126784"/>
-        <c:axId val="87112704"/>
+        <c:axId val="98754944"/>
+        <c:axId val="98756480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87126784"/>
+        <c:axId val="98754944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -697,12 +697,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87112704"/>
+        <c:crossAx val="98756480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87112704"/>
+        <c:axId val="98756480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -711,7 +711,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87126784"/>
+        <c:crossAx val="98754944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -724,7 +724,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
